--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="AA6" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="1">
         <v>1</v>
